--- a/Project - Digital_clock_new/De10_digital-Clock_new.xlsx
+++ b/Project - Digital_clock_new/De10_digital-Clock_new.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Digital_clock_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0467FCA7-EF94-48FC-8575-B79ADE3E12F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E5FDC-EEDD-4E90-901C-2D39E0FC629A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F4B6A67-5DF6-4B38-84DA-2211DD48BFD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4F4B6A67-5DF6-4B38-84DA-2211DD48BFD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Block diagram" sheetId="3" r:id="rId1"/>
-    <sheet name="switch" sheetId="2" r:id="rId2"/>
+    <sheet name="Block diagram 01" sheetId="3" r:id="rId1"/>
+    <sheet name="Block diagram 02- better ver" sheetId="4" r:id="rId2"/>
+    <sheet name="switch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Slide switch</t>
   </si>
   <si>
     <t>clock run</t>
-  </si>
-  <si>
-    <t>sec set 0</t>
   </si>
   <si>
     <t>min + 1</t>
@@ -157,8 +155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10170968" y="3807403"/>
-          <a:ext cx="1597428" cy="2790825"/>
+          <a:off x="10378786" y="3807403"/>
+          <a:ext cx="1636394" cy="2790825"/>
           <a:chOff x="6990412" y="1066800"/>
           <a:chExt cx="1620188" cy="2790825"/>
         </a:xfrm>
@@ -1538,8 +1536,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14772410" y="6909954"/>
-          <a:ext cx="1053529" cy="2428999"/>
+          <a:off x="15084137" y="6909954"/>
+          <a:ext cx="1079507" cy="2428999"/>
           <a:chOff x="13616980" y="1802130"/>
           <a:chExt cx="1059180" cy="2446020"/>
         </a:xfrm>
@@ -3025,8 +3023,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15139123" y="14110854"/>
-          <a:ext cx="1053529" cy="2428999"/>
+          <a:off x="15450850" y="14110854"/>
+          <a:ext cx="1079507" cy="2428999"/>
           <a:chOff x="13616980" y="1802130"/>
           <a:chExt cx="1059180" cy="2446020"/>
         </a:xfrm>
@@ -5423,8 +5421,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15101023" y="21740379"/>
-          <a:ext cx="1053529" cy="2428999"/>
+          <a:off x="15412750" y="21740379"/>
+          <a:ext cx="1079507" cy="2428999"/>
           <a:chOff x="13616980" y="1802130"/>
           <a:chExt cx="1059180" cy="2446020"/>
         </a:xfrm>
@@ -8483,6 +8481,9335 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7545B8-C8A4-4CED-81F0-4F4EB06EFDB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4278457"/>
+          <a:ext cx="2905125" cy="938834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>500MHz Clock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>175780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>555914</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>148936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3391800C-45A2-4A64-9F0A-3BF4A0D5B7E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7490980" y="3835111"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>Counter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> module</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>(Second) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>532534</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71D2DD3-2143-45BB-B8B3-716E941381CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="7248525"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>Counter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> module</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800" baseline="0"/>
+            <a:t>Minute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>542059</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF0EB77-4650-4366-ADF6-E229070FA1DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="10706100"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>Counter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> module</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800" baseline="0"/>
+            <a:t>Minute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>129020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7E8AC5-802D-4D39-BA24-3AAE9E89230F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="4998621"/>
+          <a:ext cx="21417395" cy="40971"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Isosceles Triangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E212E8-5B58-4538-B553-C614938F9D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7527769" y="5950107"/>
+          <a:ext cx="574988" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152741</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1138E6F9-63B6-474A-AE3C-E6B8BBA76DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5001832" y="5039591"/>
+          <a:ext cx="107032" cy="10581409"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>153265</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AC6F1D-9111-48A6-AC67-82A11E7B2EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5108864" y="9663546"/>
+          <a:ext cx="2318037" cy="34636"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>143740</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>33772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>191365</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>37260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Isosceles Triangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E93225-A42C-46F5-B0A4-9964116D24B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7456763" y="9328885"/>
+          <a:ext cx="574988" cy="653762"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>135083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>167119</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>153057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451B0BCA-3D97-45CE-B1FB-B4B3AC323D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5143500" y="13089083"/>
+          <a:ext cx="2297255" cy="17974"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>157594</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>30309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>205219</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>33797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Isosceles Triangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED087BC7-DB8B-405E-B24E-C4ECFE432CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7470617" y="12754422"/>
+          <a:ext cx="574988" cy="653762"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>138547</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>542257</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141143</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EC9B08-9995-4371-8D0E-E3024B5C72EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="23912947" y="2684318"/>
+          <a:ext cx="1622910" cy="2790825"/>
+          <a:chOff x="6990412" y="1066800"/>
+          <a:chExt cx="1620188" cy="2790825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D751CD4-8EBC-4AC0-8B6F-AB09CC4EE8B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6992711" y="1066800"/>
+            <a:ext cx="1617889" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2800" baseline="0"/>
+              <a:t>Pulse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+              <a:t> gen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Isosceles Triangle 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD49292-5E22-462E-A428-EA7A0FEF6B2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6946446" y="3084740"/>
+            <a:ext cx="657225" cy="569294"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>160193</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170998</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0308D101-ABF3-402C-BD93-D500E4FD4310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5056909" y="8724901"/>
+          <a:ext cx="2376920" cy="18597"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149261</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>397900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B419F4-E566-48E2-96D2-B87CF7B839B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3786079" y="692727"/>
+          <a:ext cx="854776" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>577265</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>310691</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C84C835-46B0-410A-BEF5-1886009BF666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4820220" y="3260764"/>
+          <a:ext cx="945698" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>512324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>542460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C3890B-7C9E-42B3-B627-90EC0C7FFA23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4755279" y="884959"/>
+          <a:ext cx="30136" cy="2492330"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>269175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1D6EC0-6A7A-4504-A2FD-844A6F819DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5724402" y="3479569"/>
+          <a:ext cx="5376553" cy="10816"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>198741</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15807</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EDDDBA-9E6F-4796-B189-D37BCAC03836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214687" y="777806"/>
+          <a:ext cx="13700429" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D94B141-CA6B-4639-9492-AFD4E0B133E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3119437" y="1016797"/>
+          <a:ext cx="13774898" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>566999</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135735</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA6D5F2-221C-45D1-B43F-AE384B1B834C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2833687" y="3564735"/>
+          <a:ext cx="15068812" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>308683</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2D938C-7845-499C-9E90-DB98558EDA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9507682" y="2580409"/>
+          <a:ext cx="2317592" cy="936913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>i_en</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>234629</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91043</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA21F6A-1950-4713-9726-6AD03B9D4602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21107401" y="6615544"/>
+          <a:ext cx="1072828" cy="2428999"/>
+          <a:chOff x="13616980" y="1802130"/>
+          <a:chExt cx="1059180" cy="2446020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="台形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AAAADC-6BBC-4378-B8C2-1185C76B2F95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="12925425" y="2699385"/>
+            <a:ext cx="2446020" cy="651510"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39244"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE830D7F-A1D3-4441-ACF0-88AC97E3F09C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13616980" y="2106083"/>
+            <a:ext cx="1059180" cy="1773814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Src</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> selector</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2in</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1out</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>48490</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B4178A-6779-4575-9D4E-50EA18694FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9140535" y="7685231"/>
+          <a:ext cx="1943101" cy="6899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>183998</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FAB91D-455F-48E8-8A94-39FD5934D66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12659590" y="4182338"/>
+          <a:ext cx="1073728" cy="2160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>387633</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>408594</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40485AF-8B1E-4A75-935C-83D7495F189A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13722633" y="4154631"/>
+          <a:ext cx="20961" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>412172</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FDD80F-860E-4D65-9116-C427B6E4AC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7031182" y="5928011"/>
+          <a:ext cx="6715990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>353783</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>370493</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519EA95A-3962-46FB-9F5B-99221A0792A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7021283" y="5922818"/>
+          <a:ext cx="16710" cy="1381991"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39829</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7326C41-6853-4D02-B089-0D2D0489B21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7083136" y="7278829"/>
+          <a:ext cx="1399310" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>519547</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>487942</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCBB64B-FF47-4C3D-9FC3-AFF1F23A2A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19309774" y="5437910"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s1: pulse_second_up</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>65808</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C05C53-0ED0-4851-980E-723A6064718D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24917399" y="3238501"/>
+          <a:ext cx="3830783" cy="1123948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>o_counter</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>65807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>213847</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>18306</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8162DDF-D726-47F1-A70D-BBF5EC74E471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21086619" y="13972307"/>
+          <a:ext cx="1072828" cy="2428999"/>
+          <a:chOff x="13616980" y="1802130"/>
+          <a:chExt cx="1059180" cy="2446020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="台形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE34D53-B394-496F-9543-CEE991EAFAA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="12925425" y="2699385"/>
+            <a:ext cx="2446020" cy="651510"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39244"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="テキスト ボックス 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D0B638-6550-4E71-A156-643267F3FCC0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13616980" y="2106083"/>
+            <a:ext cx="1059180" cy="1773814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Src</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> selector</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2in</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1out</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>27708</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>182994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>189893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953E8C8E-D89D-4764-A6F0-B88F3777E4F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9119753" y="11993994"/>
+          <a:ext cx="1943101" cy="6899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>366851</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>387812</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA48D19-18D4-4F63-9F72-EA9B057FF73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13701851" y="8463394"/>
+          <a:ext cx="20961" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>391390</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72463AE-7990-45E7-892D-81D571DF7397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="10236774"/>
+          <a:ext cx="6715990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>333001</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>135081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>349711</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>183572</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B52FAA-2355-40E7-8DFF-BABA7D4D78D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000501" y="10231581"/>
+          <a:ext cx="16710" cy="1381991"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>394854</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>157592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>581891</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>157592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FECE32-B53A-4D84-B4F3-D575DF1E409A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7062354" y="11587592"/>
+          <a:ext cx="1399310" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>443346</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75628682-2EE4-4C39-8701-A4F03C12CB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25294937" y="7983682"/>
+          <a:ext cx="2829790" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>o_counter: second</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>374074</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>10389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>227702</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>153388</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B6E1B1-32FA-45A4-956E-DC46378A4C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21100474" y="20965389"/>
+          <a:ext cx="1072828" cy="2428999"/>
+          <a:chOff x="13616980" y="1802130"/>
+          <a:chExt cx="1059180" cy="2446020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="台形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE62B36-D414-4328-BC19-7B1FEB45738C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="12925425" y="2699385"/>
+            <a:ext cx="2446020" cy="651510"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39244"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="テキスト ボックス 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C0618D-2071-4814-9DD8-98B23F444881}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13616980" y="2106083"/>
+            <a:ext cx="1059180" cy="1773814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Src</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> selector</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2in</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1out</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>166254</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>134475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFD2C2E-3D02-4D88-81B8-65996390C71A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9133608" y="16129576"/>
+          <a:ext cx="1943101" cy="6899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>380706</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>401667</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF86F83-1232-483B-877A-1E48361B36AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13715706" y="12598976"/>
+          <a:ext cx="20961" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>356755</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>84856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>405245</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>84856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A42AAF-9D3F-43B3-96CF-36958A63379A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7024255" y="14372356"/>
+          <a:ext cx="6715990" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>346856</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>79663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>363566</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B14B6A-FCC9-4801-B1C9-28EE6289C1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7014356" y="14367163"/>
+          <a:ext cx="16710" cy="1381991"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>408709</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>102174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>595746</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>102174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200DB174-3237-41FC-B1F1-23F2BF686856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7076209" y="15723174"/>
+          <a:ext cx="1399310" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>387928</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4402105-4D81-4CF3-9127-E47E608590E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25239519" y="15160335"/>
+          <a:ext cx="2867890" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>o_counter: minute</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>516081</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901C85B8-3E69-47C4-B760-6C54175A233D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12898581" y="8510580"/>
+          <a:ext cx="4651231" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>529935</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>55844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>55844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A282A28-C655-4C50-AE04-C20E4FAC0673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12912435" y="15676844"/>
+          <a:ext cx="4661190" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>557646</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B321170-A6F5-402D-9E35-6D72B23A21A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9438409" y="8406492"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>559377</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>164523</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AB5C58-FE99-4DED-863D-2EB4F73E252B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10257559" y="8191500"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>limit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>72983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>29443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44BE164-9A46-4C99-954D-2D252F46DAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9452264" y="12645983"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>573232</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>178378</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>4951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFAEBE1-9100-47E6-858E-BDAEFD648124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10271414" y="12430991"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>limit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>339438</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>52202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>550720</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>8662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31B3348-1727-4CD1-A3E7-B8F6A9E8C986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9431483" y="16625702"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>24</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>157597</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>174670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="TextBox 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325098FB-0008-457C-92D1-0708244642F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10250633" y="16410710"/>
+          <a:ext cx="817419" cy="527960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>limit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>557646</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>169718</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BF5EA4-C62B-4637-84C8-ED0EA0A0D8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10255828" y="8668905"/>
+          <a:ext cx="824345" cy="1567"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>162214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>183572</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>163781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223227B4-5931-4CC0-BFF8-8B0DE44F940E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10269682" y="12925714"/>
+          <a:ext cx="824345" cy="1567"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>550718</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>162790</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>160317</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5562E3-A06C-45E9-9A80-CD638FE4A3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10248900" y="16922750"/>
+          <a:ext cx="824345" cy="1567"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>513484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72480455-2AD4-416B-A873-F2568150682D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17487900" y="3890510"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>/10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>561109</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>128135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A1185A-0098-4E93-A4BB-EA4070ADDAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17535525" y="7243310"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>%10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>613067</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>361211</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A45D5E-4A40-4E39-852D-CCDB370D7C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22901567" y="3897314"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> segment </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>S2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>37486</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>404755</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>135620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37D1660-E172-4F69-A4BA-2BDAA724F079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22945111" y="7250795"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7 segment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>S1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>513484</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>613067</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Connector: Elbow 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C438A66E-ACA6-4047-8E75-E0D9C0B1CF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19087234" y="5285923"/>
+          <a:ext cx="3814333" cy="6804"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>561109</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>37486</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Connector: Elbow 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D285D84-E9ED-4087-AFF3-1C9FF1916C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="3"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19134859" y="8638723"/>
+          <a:ext cx="3810252" cy="7485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>286616</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>135062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1246909" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8FF7A1-3C4D-45C0-8DC5-E3F4A8A6841C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21336866" y="4707062"/>
+          <a:ext cx="1246909" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>InSecHi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>286615</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>135063</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1246909" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD341EEC-E0E3-46AA-9A54-B1094F233C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21336865" y="8136063"/>
+          <a:ext cx="1246909" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>InSecLo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>126425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>130300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>131125</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>185410</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="127" name="Group 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19548F67-D6EF-4133-A665-66F688C789B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="29996825" y="11179300"/>
+          <a:ext cx="7319900" cy="6151110"/>
+          <a:chOff x="26963111" y="7702674"/>
+          <a:chExt cx="7434200" cy="6151110"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Rectangle 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99034B50-07A7-4F9D-B137-C4251EE358C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26963111" y="7702674"/>
+            <a:ext cx="1576820" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>/10</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Rectangle 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B4CBC9-0234-4888-967C-D679245B681C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="27010736" y="11055474"/>
+            <a:ext cx="1586345" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>%10</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="Rectangle 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CB0AAA-FC29-4FA6-9E29-D14E1482D0FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="32744786" y="7709476"/>
+            <a:ext cx="1618507" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+              <a:t> segment </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+              <a:t>S2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Rectangle 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4669F50-F492-4959-A043-9B7830BE6626}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="32788329" y="11062959"/>
+            <a:ext cx="1608982" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>7 segment</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>S1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="102" name="Connector: Elbow 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CE5950-642F-486E-8BF3-15AEB12B9CA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="98" idx="3"/>
+            <a:endCxn id="100" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="28539931" y="9098087"/>
+            <a:ext cx="4204855" cy="6802"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="103" name="Connector: Elbow 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C60981-E721-42F5-9FF6-8D75BD0C8186}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="99" idx="3"/>
+            <a:endCxn id="101" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="28597081" y="12450887"/>
+            <a:ext cx="4191248" cy="7485"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="TextBox 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6C694E-C2C8-4D1F-A0D7-1DA7FF921711}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30812077" y="8519226"/>
+            <a:ext cx="1246909" cy="468013"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400"/>
+              <a:t>InMinHi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="TextBox 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06E9B2F-0ECD-44C6-9120-F251B25D4B1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="30812076" y="11948227"/>
+            <a:ext cx="1246909" cy="468013"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400"/>
+              <a:t>InMinLo</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>187449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>197798</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>52059</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="130" name="Group 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A8C0E4-A7CB-4BD6-8174-9C8CBC4CBB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="30053973" y="18475449"/>
+          <a:ext cx="7329425" cy="6151110"/>
+          <a:chOff x="17519073" y="22571199"/>
+          <a:chExt cx="7443725" cy="6151110"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="TextBox 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6290E898-9EA2-4D04-8DF2-7110E20A48E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21368039" y="23387751"/>
+            <a:ext cx="1246909" cy="468013"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400"/>
+              <a:t>InMinHi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="128" name="Group 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17418816-E3AD-4F8F-BC79-9097E1663547}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="17519073" y="22571199"/>
+            <a:ext cx="7443725" cy="6151110"/>
+            <a:chOff x="17519073" y="22571199"/>
+            <a:chExt cx="7443725" cy="6151110"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="Rectangle 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8638E1A7-8FED-40A9-A585-4AA25F97DDCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17519073" y="22571199"/>
+              <a:ext cx="1586345" cy="2790825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800"/>
+                <a:t>/10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="Rectangle 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CA38AF-B2F0-4042-BC03-4B6F8F919DE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17566698" y="25923999"/>
+              <a:ext cx="1586345" cy="2790825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800"/>
+                <a:t>%10</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="Rectangle 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BED1B8-2751-491B-B0F6-EC0ABFAD323A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23300748" y="22578001"/>
+              <a:ext cx="1618507" cy="2790825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800"/>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+                <a:t> segment </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+                <a:t>S2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-MY" sz="2800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="109" name="Rectangle 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDC9392-08EC-4AF3-832E-CEE05C5E4159}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23344291" y="25931484"/>
+              <a:ext cx="1618507" cy="2790825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800"/>
+                <a:t>7 segment</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2800"/>
+                <a:t>S1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="110" name="Connector: Elbow 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83808C7B-E257-4FE8-8779-AE4AF59B7A02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="106" idx="3"/>
+              <a:endCxn id="108" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19105418" y="23966612"/>
+              <a:ext cx="4195330" cy="6802"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="111" name="Connector: Elbow 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B659F56-7849-4BD2-8D06-16805F5AD8E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="107" idx="3"/>
+              <a:endCxn id="109" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19153043" y="27319412"/>
+              <a:ext cx="4191248" cy="7485"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="76200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="113" name="TextBox 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77A2613-32FD-4CBA-94F2-410623096870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21368038" y="26816752"/>
+              <a:ext cx="1246909" cy="468013"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-MY" sz="2400"/>
+                <a:t>InMinLo</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>610817</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>30625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD74A5C-E790-4D05-96A7-AC4933B68AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15469817" y="5286375"/>
+          <a:ext cx="38933" cy="3219883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>539028</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Straight Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B3ED1-7714-4BC4-974B-1CE5C6547121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15398028" y="5303686"/>
+          <a:ext cx="2127972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>547255</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>132481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>132481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82424D2-DCA7-4082-9EFC-32D7557DF06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12929755" y="22420981"/>
+          <a:ext cx="4596245" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>548904</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>590250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8311268A-F320-40FB-951F-3FBC77E5DC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15407904" y="12296775"/>
+          <a:ext cx="41346" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>477115</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>122086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FF8201-1BCC-4314-8DFD-1B6A578C5423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15336115" y="12314086"/>
+          <a:ext cx="2127972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>582242</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>2050</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>24245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1A2B80-E34B-4532-8C2D-A9F1A54DA874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15441242" y="19283362"/>
+          <a:ext cx="38933" cy="3219883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>510453</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>60173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>60173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8B3355-F23A-4ACC-A1EC-4AE1EC80A238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15369453" y="19300673"/>
+          <a:ext cx="2127972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="TextBox 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4A4613-2AC7-4082-B100-E17C01FF7A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="309562" y="119063"/>
+          <a:ext cx="2928938" cy="1615109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>slide switch[0]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>slide switch[1]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="TextBox 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11DDA84-E08D-4424-8A99-D48684549917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="2921145"/>
+          <a:ext cx="2381250" cy="1615109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>slide switch[2]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="TextBox 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1629E8A8-DCAE-4889-AF03-A657A34A687E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="8191500"/>
+          <a:ext cx="1976437" cy="1615109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>Push button</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF1CD37-7282-49CF-A286-7CA76FADABAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6357937" y="6977062"/>
+          <a:ext cx="4071937" cy="3405188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>push_button_pulse_gen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" altLang="zh-CN" sz="2800"/>
+            <a:t>sec_pushBtn_pulse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>23803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D9F4D3-58A9-4564-A50E-A952609ED583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="12977803"/>
+          <a:ext cx="4071937" cy="3405188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>push_button_pulse_gen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" altLang="zh-CN" sz="2800"/>
+            <a:t>min_pushBtn_pulse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>33331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rectangle 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F201270-0828-4ED5-B7B2-1B9934739D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10034587" y="19869143"/>
+          <a:ext cx="4071937" cy="3405188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>push_button_pulse_gen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" altLang="zh-CN" sz="2800"/>
+            <a:t>hour_pushBtn_pulse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>48832</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7202B44-3DDD-444A-8ABC-8C897BB1B0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8520479" y="5039591"/>
+          <a:ext cx="40815" cy="17775585"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151534</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>108767</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C578B21-6385-45F3-9881-4B3BE2DA3BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5024437" y="9820277"/>
+          <a:ext cx="1318347" cy="3990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>66667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113434</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>70657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFC6DD5-7176-4ADA-B684-64059A5F6902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8701087" y="15878167"/>
+          <a:ext cx="1318347" cy="3990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>118808</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>72551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166433</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Isosceles Triangle 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CDAD82-1EF5-4AA1-BFEC-A5C03AD38257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9839568" y="22512673"/>
+          <a:ext cx="574988" cy="652743"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41461</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107551</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>143217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="Straight Connector 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77F990E-0814-4AEC-A3C1-9E915D527AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8513108" y="22808727"/>
+          <a:ext cx="1276325" cy="3990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518415</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518415</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Connector 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D0694-6CD6-495C-B6A7-5E2C3368F59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5471415" y="7273636"/>
+          <a:ext cx="0" cy="1420091"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108765</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461190</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Picture 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E2FA0D-01CB-45D6-96BB-A514D358188F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4442640" y="7048499"/>
+          <a:ext cx="971550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>479783</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190569</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>41384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Picture 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27715DF7-A550-4E9E-B65F-E0EA6C29FFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5432783" y="8575784"/>
+          <a:ext cx="949036" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Straight Connector 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F92711B-ACAF-460C-9058-AA7F71893C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2833687" y="8851732"/>
+          <a:ext cx="3857624" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186271</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Connector 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C77121-AC24-49B9-A18F-FEB2A7EE9236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3929062" y="7127366"/>
+          <a:ext cx="591084" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64217</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Straight Connector 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423B14EC-FF73-434E-B9A8-B8FE10811CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19257092" y="3504334"/>
+          <a:ext cx="197720" cy="21165416"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>49789</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Connector 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C992CCF-CC2E-4EDF-8B0E-0876192DB312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3881437" y="4313006"/>
+          <a:ext cx="14122977" cy="27807"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192805</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370325</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Connector 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6253B3F1-03EB-4D52-829D-BDF5DDB8FF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5033746" y="4323484"/>
+          <a:ext cx="177520" cy="14681692"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4065</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4065</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>59315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="Straight Connector 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8EFB47-7379-4CC6-87D7-C87A369BD504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576190" y="11974224"/>
+          <a:ext cx="0" cy="1420091"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213540</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>565965</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CF5471-590D-472D-B792-9769F3B1C539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4547415" y="11749087"/>
+          <a:ext cx="971550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584558</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>131872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295344</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>169972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD621DA9-336F-4BF3-ABBC-A3435FBC5E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5537558" y="13276372"/>
+          <a:ext cx="949036" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>26820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>26820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="Straight Connector 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D14485-DE90-4D5A-804A-C2A1B3EEA07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="13552320"/>
+          <a:ext cx="2319336" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291046</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="Straight Connector 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A44877D-2E94-445C-AC34-D83B48DFDCC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033837" y="11827954"/>
+          <a:ext cx="591084" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37402</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37402</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>116459</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="Straight Connector 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFCC435-11B9-4943-A7EB-39CDBC48C34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6847777" y="19079868"/>
+          <a:ext cx="0" cy="1420091"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246877</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>185731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599302</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>33331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Picture 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A44A5A-66D0-46C2-9E7D-7DA9F40A3FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5819002" y="18854731"/>
+          <a:ext cx="971550" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608370</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>189016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328681</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>36616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Picture 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927537C6-75EB-4DFC-9434-24A92EC68B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6799620" y="20382016"/>
+          <a:ext cx="958561" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>83964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>83964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="Straight Connector 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7933C782-21AB-4BEC-856E-EED04DDC9EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="20657964"/>
+          <a:ext cx="2257423" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>318806</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>93720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290765</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>93720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Straight Connector 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1396EDA2-1693-4711-B6D2-C5E55EAFA790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5159747" y="18953220"/>
+          <a:ext cx="577077" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508093</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="Straight Connector 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD38927-882C-49E1-8813-649FD298BBB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="785812"/>
+          <a:ext cx="79468" cy="6572250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="Straight Connector 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6199F8E4-E751-4E1E-82A2-95D78E34AF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200524" y="7384259"/>
+          <a:ext cx="1514476" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184243</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="Straight Connector 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFF097F-047E-4D21-8114-461C13EBB695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="1095375"/>
+          <a:ext cx="41368" cy="10915649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35721</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="Straight Connector 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF05C43-3690-46A2-8DF2-8ABB987D8C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3833812" y="12037221"/>
+          <a:ext cx="1962151" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282927</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="Straight Connector 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C66C20-9032-4496-AA0C-EFA3F45F9B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3249425" y="3581399"/>
+          <a:ext cx="59090" cy="15591866"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180694</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223557</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Straight Connector 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128601D3-CE0E-443F-AC38-678612650117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206282" y="19162486"/>
+          <a:ext cx="2463334" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134217</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>155878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="Isosceles Triangle 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAAD055-9191-4998-BD14-D307F2071922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10038473" y="15537009"/>
+          <a:ext cx="574988" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167554</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215179</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>189225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="Isosceles Triangle 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F17F9-E937-4296-AE66-166FD3813D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10119435" y="9474356"/>
+          <a:ext cx="574988" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="Straight Connector 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E93371E-0A5A-43A3-AACD-C1FFFBD6EFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7548562" y="8794241"/>
+          <a:ext cx="2452688" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="Straight Connector 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F5BE8A-B0F3-45EE-B8A0-F53A16FF6432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7700962" y="13471016"/>
+          <a:ext cx="2276475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>2660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>2660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="Straight Connector 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59760455-AE9C-43F0-8AC6-583A1DF7B475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7710487" y="20576660"/>
+          <a:ext cx="2276475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191079</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>95244</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="Straight Connector 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD0942-5919-491E-8383-812F998A86F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="8858250"/>
+          <a:ext cx="579" cy="11810994"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="Straight Connector 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF8ED19-CDC1-46DE-BDE4-889E00DB4D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106525" y="8670757"/>
+          <a:ext cx="7586662" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="Straight Connector 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB14CAA8-5243-4E1F-B827-EA64FB38480B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14044612" y="15300157"/>
+          <a:ext cx="7586662" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>481011</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>22057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>22057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="Straight Connector 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE86700-29CA-46A5-A284-167B5A0DAAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14101761" y="22501057"/>
+          <a:ext cx="7586662" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF66CC"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>93899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="Straight Connector 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFF2E6F-33ED-490B-93D9-5ADE419313B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19359563" y="10380899"/>
+          <a:ext cx="2714624" cy="5346"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>170683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>170684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="Straight Connector 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4EBAA8-BE4A-486C-98B6-E44EB23461D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19454813" y="17506183"/>
+          <a:ext cx="2476499" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>99245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="Straight Connector 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F9B58D-2374-4724-A2BB-F78EA5C75AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19044396" y="24664147"/>
+          <a:ext cx="2459692" cy="9598"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>355764</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="Straight Connector 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE06A584-DEE7-467F-B79B-F8878B5602C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21512494" y="8977312"/>
+          <a:ext cx="22388" cy="1388129"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>288905</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>80401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>288955</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="Straight Connector 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF213AA-A4CD-438C-A2AD-B73C31DCB55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21468023" y="16272901"/>
+          <a:ext cx="50" cy="1253099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>287018</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>24983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>302760</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="Straight Connector 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37F56B4-39A1-4143-927E-E6C1270D157F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21466136" y="23265983"/>
+          <a:ext cx="15742" cy="1409370"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>470623</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="TextBox 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15DD23A-97A2-40D4-96E4-D9174D18018F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19292455" y="12763500"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s1: pulse_minute_up</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>487941</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="TextBox 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D76A6B-7F62-4F6D-B733-7D92957F7C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19309773" y="19725409"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s1: pulse_hour_up</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>377538</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>135083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>345933</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="TextBox 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1B67A7-9EFB-4F70-A682-E19AE955EB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17955493" y="8136083"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s2: sec_button_pulse</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>210849</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="TextBox 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF3B79C-C21E-43F6-87DB-7F773C20E197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17820409" y="14789727"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s2: min_button_pulse</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>464127</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>432522</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="TextBox 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C6E4D8-593D-48B5-AB0D-B8C6EB795FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18042082" y="22042582"/>
+          <a:ext cx="3605213" cy="467590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>s2: hour_button_pulse</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>401783</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>176644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>238991</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="TextBox 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33ABD50-FC08-4AA4-B25E-52B86982C5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25253374" y="21893644"/>
+          <a:ext cx="2867890" cy="495301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>o_counter: hour</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>46504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>141762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="Speech Bubble: Rectangle with Corners Rounded 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B69ABD3-4589-4531-9CA8-FAC591AC6161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13835063" y="5571004"/>
+          <a:ext cx="2285999" cy="1809758"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41205"/>
+            <a:gd name="adj2" fmla="val 73974"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>geenrate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> 1 pulse per click, pulse duration same as 1 clock</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="Speech Bubble: Rectangle with Corners Rounded 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102EE5AC-1ED1-45F3-8D84-202EA2029649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25607963" y="841842"/>
+          <a:ext cx="2285999" cy="1809758"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41205"/>
+            <a:gd name="adj2" fmla="val 73974"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>geenrate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> 1 pulse per sec, pulse duration same as 1 clock</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>245595</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="Speech Bubble: Rectangle with Corners Rounded 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480AFD5A-1158-4038-8D6E-4F62C6385851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22788562" y="10191750"/>
+          <a:ext cx="2222033" cy="2795588"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82386"/>
+            <a:gd name="adj2" fmla="val -67391"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Counter module,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> 1 puslse generate per 1 sec, pulse duration same as clock. counter will reset when reach limit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>255120</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="Speech Bubble: Rectangle with Corners Rounded 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1401FA32-9F68-41D6-BB78-CBFC2936639F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22798087" y="17297400"/>
+          <a:ext cx="2222033" cy="2795588"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82386"/>
+            <a:gd name="adj2" fmla="val -67391"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Counter module,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> 1 puslse generate per 1 minute, pulse duration same as clock. counter will reset when reach limit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>507533</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="Speech Bubble: Rectangle with Corners Rounded 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA133CFE-46C9-43E4-A880-3DFDF3CA260B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22431375" y="24431625"/>
+          <a:ext cx="2222033" cy="2795588"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82386"/>
+            <a:gd name="adj2" fmla="val -67391"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Counter module,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> 1 puslse generate per 1 hour, pulse duration same as clock. counter will reset when reach limit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9511,8 +18838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845303FA-5AAD-462B-8BD0-A03524DEA87D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T95" sqref="T95"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9523,6 +18850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3653C1-086E-494B-B9E2-DCFE4CFD86E0}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="V144" sqref="V144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A0CC58-A74E-4719-AB33-C633C9FFA2B8}">
   <dimension ref="Y9:AD27"/>
   <sheetViews>
@@ -9547,7 +18893,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -9593,13 +18939,13 @@
         <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="25:30" x14ac:dyDescent="0.25">
@@ -9613,13 +18959,13 @@
         <v>0</v>
       </c>
       <c r="AB22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="25:30" x14ac:dyDescent="0.25">
@@ -9633,13 +18979,13 @@
         <v>1</v>
       </c>
       <c r="AB23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="25:30" x14ac:dyDescent="0.25">
@@ -9653,13 +18999,13 @@
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="25:30" x14ac:dyDescent="0.25">
@@ -9673,13 +19019,13 @@
         <v>1</v>
       </c>
       <c r="AB25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="25:30" x14ac:dyDescent="0.25">
@@ -9693,13 +19039,13 @@
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="25:30" x14ac:dyDescent="0.25">
@@ -9713,13 +19059,13 @@
         <v>1</v>
       </c>
       <c r="AB27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
